--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10542</x:v>
+        <x:v>10543</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4721</x:v>
+        <x:v>4722</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6150</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22952</x:v>
+        <x:v>22954</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11299</x:v>
+        <x:v>11300</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5175</x:v>
+        <x:v>5176</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6499</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24655</x:v>
+        <x:v>24657</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10543</x:v>
+        <x:v>10546</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4722</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6150</x:v>
+        <x:v>6151</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22954</x:v>
+        <x:v>22958</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11300</x:v>
+        <x:v>11303</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5176</x:v>
@@ -574,10 +574,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6499</x:v>
+        <x:v>6500</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24657</x:v>
+        <x:v>24661</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2364</x:v>
+        <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15623</x:v>
+        <x:v>15624</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2413</x:v>
+        <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15796</x:v>
+        <x:v>15797</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>50</x:v>
@@ -925,7 +925,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -965,7 +965,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>50</x:v>
@@ -983,7 +983,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10546</x:v>
+        <x:v>10550</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4722</x:v>
@@ -519,7 +519,7 @@
         <x:v>6151</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22958</x:v>
+        <x:v>22962</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11303</x:v>
+        <x:v>11307</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5176</x:v>
@@ -577,7 +577,7 @@
         <x:v>6500</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24661</x:v>
+        <x:v>24665</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1981</x:v>
+        <x:v>1982</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>957</x:v>
@@ -751,7 +751,7 @@
         <x:v>408</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3561</x:v>
+        <x:v>3562</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2448</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1356</x:v>
@@ -809,7 +809,7 @@
         <x:v>585</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4665</x:v>
+        <x:v>4666</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10221</x:v>
+        <x:v>10222</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15624</x:v>
+        <x:v>15625</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10328</x:v>
+        <x:v>10329</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15797</x:v>
+        <x:v>15798</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1875</x:v>
+        <x:v>1876</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2241</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4816</x:v>
+        <x:v>4817</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1978</x:v>
+        <x:v>1979</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2338</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5046</x:v>
+        <x:v>5047</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10550</x:v>
+        <x:v>10561</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4722</x:v>
+        <x:v>4723</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6151</x:v>
+        <x:v>6154</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22962</x:v>
+        <x:v>22977</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -539,10 +539,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>349</x:v>
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11307</x:v>
+        <x:v>11318</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5176</x:v>
+        <x:v>5177</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6500</x:v>
+        <x:v>6503</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24665</x:v>
+        <x:v>24680</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -762,7 +762,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>399</x:v>
@@ -780,7 +780,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1103</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2449</x:v>
+        <x:v>2448</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1356</x:v>
@@ -809,7 +809,7 @@
         <x:v>585</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4666</x:v>
+        <x:v>4665</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,16 +820,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10222</x:v>
+        <x:v>10224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>27</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15625</x:v>
+        <x:v>15629</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,16 +878,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10329</x:v>
+        <x:v>10331</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>27</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15798</x:v>
+        <x:v>15802</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>263</x:v>
@@ -1009,10 +1009,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2237</x:v>
+        <x:v>2239</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1815</x:v>
+        <x:v>1816</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
@@ -1067,10 +1067,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3004</x:v>
+        <x:v>3006</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1876</x:v>
+        <x:v>1877</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2241</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4817</x:v>
+        <x:v>4818</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1979</x:v>
+        <x:v>1980</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2338</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5047</x:v>
+        <x:v>5048</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,16 +501,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10561</x:v>
+        <x:v>10564</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4723</x:v>
+        <x:v>4725</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
@@ -519,7 +519,7 @@
         <x:v>6154</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22977</x:v>
+        <x:v>22984</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -545,10 +545,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1704</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11318</x:v>
+        <x:v>11321</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5177</x:v>
+        <x:v>5179</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6503</x:v>
+        <x:v>6504</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24680</x:v>
+        <x:v>24688</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -748,10 +748,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3562</x:v>
+        <x:v>3563</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -806,10 +806,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4665</x:v>
+        <x:v>4666</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10224</x:v>
+        <x:v>10225</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15629</x:v>
+        <x:v>15630</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10331</x:v>
+        <x:v>10332</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15802</x:v>
+        <x:v>15803</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10225</x:v>
+        <x:v>10228</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15630</x:v>
+        <x:v>15633</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10332</x:v>
+        <x:v>10335</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15803</x:v>
+        <x:v>15806</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,13 +994,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1343</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>263</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>48</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2239</x:v>
+        <x:v>2241</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,13 +1052,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1816</x:v>
+        <x:v>1817</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>82</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3006</x:v>
+        <x:v>3008</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10564</x:v>
+        <x:v>10565</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4725</x:v>
+        <x:v>4726</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6154</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22984</x:v>
+        <x:v>22986</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11321</x:v>
+        <x:v>11322</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5179</x:v>
+        <x:v>5180</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6504</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24688</x:v>
+        <x:v>24690</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10228</x:v>
+        <x:v>10230</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15633</x:v>
+        <x:v>15635</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10335</x:v>
+        <x:v>10337</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15806</x:v>
+        <x:v>15808</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1877</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2241</x:v>
+        <x:v>2243</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4818</x:v>
+        <x:v>4820</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1980</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2338</x:v>
+        <x:v>2340</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5048</x:v>
+        <x:v>5050</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10565</x:v>
+        <x:v>10566</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4726</x:v>
@@ -519,7 +519,7 @@
         <x:v>6154</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22986</x:v>
+        <x:v>22987</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11322</x:v>
+        <x:v>11323</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5180</x:v>
@@ -577,7 +577,7 @@
         <x:v>6504</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24690</x:v>
+        <x:v>24691</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>1982</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>40</x:v>
@@ -751,7 +751,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3563</x:v>
+        <x:v>3562</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>2448</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1356</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>52</x:v>
@@ -809,7 +809,7 @@
         <x:v>586</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4666</x:v>
+        <x:v>4665</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1344</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>263</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2241</x:v>
+        <x:v>2242</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1817</x:v>
+        <x:v>1818</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3008</x:v>
+        <x:v>3009</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10566</x:v>
+        <x:v>10567</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4726</x:v>
+        <x:v>4729</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6154</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22987</x:v>
+        <x:v>22991</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11323</x:v>
+        <x:v>11324</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5180</x:v>
+        <x:v>5183</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6504</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24691</x:v>
+        <x:v>24695</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10230</x:v>
+        <x:v>10232</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2365</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15635</x:v>
+        <x:v>15637</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10337</x:v>
+        <x:v>10339</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2414</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15808</x:v>
+        <x:v>15810</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10567</x:v>
+        <x:v>10569</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4729</x:v>
+        <x:v>4731</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6154</x:v>
+        <x:v>6155</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22991</x:v>
+        <x:v>22996</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11324</x:v>
+        <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5183</x:v>
+        <x:v>5185</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6504</x:v>
+        <x:v>6505</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24695</x:v>
+        <x:v>24700</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -762,7 +762,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>399</x:v>
@@ -780,7 +780,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2448</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1355</x:v>
@@ -809,7 +809,7 @@
         <x:v>586</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4665</x:v>
+        <x:v>4666</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10232</x:v>
+        <x:v>10234</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2365</x:v>
+        <x:v>2366</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15637</x:v>
+        <x:v>15640</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10339</x:v>
+        <x:v>10341</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2414</x:v>
+        <x:v>2415</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15810</x:v>
+        <x:v>15813</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1877</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2243</x:v>
@@ -1090,7 +1090,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>5</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4820</x:v>
+        <x:v>4822</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1980</x:v>
+        <x:v>1981</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2340</x:v>
@@ -1148,7 +1148,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>5</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5050</x:v>
+        <x:v>5052</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10234</x:v>
+        <x:v>10235</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2366</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15640</x:v>
+        <x:v>15641</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10341</x:v>
+        <x:v>10342</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2415</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15813</x:v>
+        <x:v>15814</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2366</x:v>
+        <x:v>2367</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15641</x:v>
+        <x:v>15642</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2415</x:v>
+        <x:v>2416</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15814</x:v>
+        <x:v>15815</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1096,10 +1096,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4822</x:v>
+        <x:v>4823</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1154,10 +1154,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5052</x:v>
+        <x:v>5053</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6155</x:v>
+        <x:v>6156</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22996</x:v>
+        <x:v>22997</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <x:v>757</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1706</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5185</x:v>
+        <x:v>5187</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6505</x:v>
+        <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24700</x:v>
+        <x:v>24703</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,16 +733,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1982</x:v>
+        <x:v>1983</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -751,7 +751,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3562</x:v>
+        <x:v>3565</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,16 +791,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2449</x:v>
+        <x:v>2450</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1355</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>7</x:v>
@@ -809,7 +809,7 @@
         <x:v>586</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4666</x:v>
+        <x:v>4669</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -826,7 +826,7 @@
         <x:v>1930</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>500</x:v>
@@ -838,7 +838,7 @@
         <x:v>2367</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15642</x:v>
+        <x:v>15643</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,7 +884,7 @@
         <x:v>1937</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>503</x:v>
@@ -896,7 +896,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15815</x:v>
+        <x:v>15816</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1878</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2243</x:v>
+        <x:v>2244</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4823</x:v>
+        <x:v>4824</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1981</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2340</x:v>
+        <x:v>2341</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5053</x:v>
+        <x:v>5054</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10569</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4731</x:v>
+        <x:v>4733</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6156</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22997</x:v>
+        <x:v>22999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5187</x:v>
+        <x:v>5189</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24703</x:v>
+        <x:v>24705</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>263</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2242</x:v>
+        <x:v>2243</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1818</x:v>
+        <x:v>1819</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3009</x:v>
+        <x:v>3010</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1878</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2244</x:v>
+        <x:v>2245</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4824</x:v>
+        <x:v>4825</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1981</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2341</x:v>
+        <x:v>2342</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5054</x:v>
+        <x:v>5055</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10569</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4733</x:v>
+        <x:v>4734</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6156</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>22999</x:v>
+        <x:v>23000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5189</x:v>
+        <x:v>5190</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24705</x:v>
+        <x:v>24706</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10569</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4734</x:v>
+        <x:v>4735</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6156</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23000</x:v>
+        <x:v>23001</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5190</x:v>
+        <x:v>5191</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24706</x:v>
+        <x:v>24707</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10235</x:v>
+        <x:v>10236</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1930</x:v>
@@ -838,7 +838,7 @@
         <x:v>2367</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15643</x:v>
+        <x:v>15644</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10342</x:v>
+        <x:v>10343</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1937</x:v>
@@ -896,7 +896,7 @@
         <x:v>2416</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15816</x:v>
+        <x:v>15817</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10569</x:v>
+        <x:v>10570</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4735</x:v>
+        <x:v>4734</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -530,10 +530,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1704</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11326</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5191</x:v>
+        <x:v>5189</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24707</x:v>
+        <x:v>24705</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1983</x:v>
+        <x:v>1984</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>957</x:v>
@@ -751,7 +751,7 @@
         <x:v>409</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3565</x:v>
+        <x:v>3566</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2450</x:v>
+        <x:v>2451</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1356</x:v>
@@ -809,7 +809,7 @@
         <x:v>586</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4669</x:v>
+        <x:v>4670</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10236</x:v>
+        <x:v>10235</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1930</x:v>
+        <x:v>1931</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2367</x:v>
+        <x:v>2369</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15644</x:v>
+        <x:v>15646</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10343</x:v>
+        <x:v>10342</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1937</x:v>
+        <x:v>1938</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2416</x:v>
+        <x:v>2418</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15817</x:v>
+        <x:v>15819</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -916,7 +916,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -925,7 +925,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -974,7 +974,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
@@ -983,7 +983,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -997,7 +997,7 @@
         <x:v>1346</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>39</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2243</x:v>
+        <x:v>2244</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,10 +1023,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>7</x:v>
@@ -1041,7 +1041,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,10 +1052,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1819</x:v>
+        <x:v>1820</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>46</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3010</x:v>
+        <x:v>3013</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1110,7 +1110,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>97</x:v>
@@ -1128,7 +1128,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1981</x:v>
+        <x:v>1982</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2342</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5055</x:v>
+        <x:v>5056</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10570</x:v>
+        <x:v>10571</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4734</x:v>
@@ -519,7 +519,7 @@
         <x:v>6156</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23001</x:v>
+        <x:v>23002</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11326</x:v>
+        <x:v>11327</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5189</x:v>
@@ -577,7 +577,7 @@
         <x:v>6506</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24705</x:v>
+        <x:v>24706</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1984</x:v>
+        <x:v>1985</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>957</x:v>
@@ -748,10 +748,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3566</x:v>
+        <x:v>3568</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -765,7 +765,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -780,7 +780,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1103</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -791,10 +791,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2451</x:v>
+        <x:v>2452</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1356</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>52</x:v>
@@ -806,10 +806,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4670</x:v>
+        <x:v>4671</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10235</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1931</x:v>
+        <x:v>1932</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2369</x:v>
+        <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15646</x:v>
+        <x:v>15648</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>10342</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1938</x:v>
+        <x:v>1939</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2418</x:v>
+        <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15819</x:v>
+        <x:v>15821</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10571</x:v>
+        <x:v>10573</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4734</x:v>
+        <x:v>4738</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6156</x:v>
+        <x:v>6157</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23002</x:v>
+        <x:v>23009</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11327</x:v>
+        <x:v>11329</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5189</x:v>
+        <x:v>5193</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6506</x:v>
+        <x:v>6507</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24706</x:v>
+        <x:v>24713</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -739,7 +739,7 @@
         <x:v>957</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>170</x:v>
@@ -751,7 +751,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3568</x:v>
+        <x:v>3569</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -797,7 +797,7 @@
         <x:v>1355</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>218</x:v>
@@ -809,7 +809,7 @@
         <x:v>587</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4671</x:v>
+        <x:v>4672</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10235</x:v>
+        <x:v>10236</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1932</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15648</x:v>
+        <x:v>15649</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10342</x:v>
+        <x:v>10343</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1939</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15821</x:v>
+        <x:v>15822</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1878</x:v>
+        <x:v>1879</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2245</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4825</x:v>
+        <x:v>4826</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1982</x:v>
+        <x:v>1983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2342</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5056</x:v>
+        <x:v>5057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10573</x:v>
+        <x:v>10574</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4738</x:v>
+        <x:v>4739</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6157</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23009</x:v>
+        <x:v>23011</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11329</x:v>
+        <x:v>11330</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5193</x:v>
+        <x:v>5194</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6507</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24713</x:v>
+        <x:v>24715</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>264</x:v>
@@ -1003,7 +1003,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>3</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2244</x:v>
+        <x:v>2246</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1820</x:v>
+        <x:v>1821</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>315</x:v>
@@ -1061,7 +1061,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>3</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3013</x:v>
+        <x:v>3015</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1084,13 +1084,13 @@
         <x:v>1879</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2245</x:v>
+        <x:v>2247</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>5</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4826</x:v>
+        <x:v>4829</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,13 +1142,13 @@
         <x:v>1983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2342</x:v>
+        <x:v>2344</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>5</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5057</x:v>
+        <x:v>5060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,13 +501,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10574</x:v>
+        <x:v>10576</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4739</x:v>
+        <x:v>4741</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1184</x:v>
@@ -519,7 +519,7 @@
         <x:v>6157</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23011</x:v>
+        <x:v>23014</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,13 +559,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11330</x:v>
+        <x:v>11332</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5194</x:v>
+        <x:v>5196</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1282</x:v>
@@ -577,7 +577,7 @@
         <x:v>6507</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24715</x:v>
+        <x:v>24718</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10236</x:v>
+        <x:v>10237</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1932</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15649</x:v>
+        <x:v>15650</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10343</x:v>
+        <x:v>10344</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1939</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15822</x:v>
+        <x:v>15823</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>51</x:v>
@@ -1041,7 +1041,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1821</x:v>
+        <x:v>1822</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>315</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>747</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3015</x:v>
+        <x:v>3016</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1879</x:v>
+        <x:v>1880</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2247</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4829</x:v>
+        <x:v>4830</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,7 +1139,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1983</x:v>
+        <x:v>1984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2344</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5060</x:v>
+        <x:v>5061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10576</x:v>
+        <x:v>10582</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4741</x:v>
+        <x:v>4745</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6157</x:v>
+        <x:v>6159</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23014</x:v>
+        <x:v>23026</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,10 +530,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -545,10 +545,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1721</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11332</x:v>
+        <x:v>11344</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5196</x:v>
+        <x:v>5201</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6507</x:v>
+        <x:v>6519</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24718</x:v>
+        <x:v>24747</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,10 +733,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1985</x:v>
+        <x:v>1986</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>41</x:v>
@@ -751,7 +751,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3569</x:v>
+        <x:v>3571</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,10 +791,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2452</x:v>
+        <x:v>2453</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1355</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>53</x:v>
@@ -809,7 +809,7 @@
         <x:v>587</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4672</x:v>
+        <x:v>4674</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10237</x:v>
+        <x:v>10239</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1932</x:v>
+        <x:v>1933</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15650</x:v>
+        <x:v>15653</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10344</x:v>
+        <x:v>10346</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1939</x:v>
+        <x:v>1940</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15823</x:v>
+        <x:v>15826</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,10 +994,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>39</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2246</x:v>
+        <x:v>2248</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1038,10 +1038,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,10 +1052,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1822</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>46</x:v>
@@ -1067,10 +1067,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>747</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3016</x:v>
+        <x:v>3023</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10582</x:v>
+        <x:v>10583</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4745</x:v>
+        <x:v>4746</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6159</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23026</x:v>
+        <x:v>23028</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11344</x:v>
+        <x:v>11345</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5201</x:v>
+        <x:v>5202</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6519</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24747</x:v>
+        <x:v>24749</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -765,7 +765,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -780,7 +780,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>2453</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1356</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>53</x:v>
@@ -809,7 +809,7 @@
         <x:v>587</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4674</x:v>
+        <x:v>4675</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2247</x:v>
+        <x:v>2248</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4830</x:v>
+        <x:v>4831</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2344</x:v>
+        <x:v>2345</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5061</x:v>
+        <x:v>5062</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10583</x:v>
+        <x:v>10584</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4746</x:v>
@@ -519,7 +519,7 @@
         <x:v>6159</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23028</x:v>
+        <x:v>23029</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11345</x:v>
+        <x:v>11346</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5202</x:v>
@@ -577,7 +577,7 @@
         <x:v>6519</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24749</x:v>
+        <x:v>24750</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10239</x:v>
+        <x:v>10240</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1933</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15653</x:v>
+        <x:v>15654</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10346</x:v>
+        <x:v>10347</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1940</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15826</x:v>
+        <x:v>15827</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10584</x:v>
+        <x:v>10586</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4746</x:v>
@@ -519,7 +519,7 @@
         <x:v>6159</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23029</x:v>
+        <x:v>23031</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>456</x:v>
@@ -548,7 +548,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1721</x:v>
+        <x:v>1725</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11346</x:v>
+        <x:v>11352</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5202</x:v>
@@ -577,7 +577,7 @@
         <x:v>6519</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24750</x:v>
+        <x:v>24756</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10240</x:v>
+        <x:v>10242</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1933</x:v>
+        <x:v>1934</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15654</x:v>
+        <x:v>15657</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10347</x:v>
+        <x:v>10349</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1940</x:v>
+        <x:v>1941</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15827</x:v>
+        <x:v>15830</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1348</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>265</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2247</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1823</x:v>
+        <x:v>1822</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>316</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3023</x:v>
+        <x:v>3022</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10586</x:v>
+        <x:v>10587</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4746</x:v>
@@ -519,7 +519,7 @@
         <x:v>6159</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23031</x:v>
+        <x:v>23032</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11352</x:v>
+        <x:v>11353</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5202</x:v>
@@ -577,7 +577,7 @@
         <x:v>6519</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24756</x:v>
+        <x:v>24757</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -649,7 +649,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>8</x:v>
@@ -664,7 +664,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -707,7 +707,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>13</x:v>
@@ -722,7 +722,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2247</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4831</x:v>
+        <x:v>4830</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2344</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5062</x:v>
+        <x:v>5061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,25 +501,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10587</x:v>
+        <x:v>10591</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4746</x:v>
+        <x:v>4749</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6159</x:v>
+        <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23032</x:v>
+        <x:v>23041</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11353</x:v>
+        <x:v>11357</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5202</x:v>
+        <x:v>5205</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1282</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6519</x:v>
+        <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24757</x:v>
+        <x:v>24766</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -649,7 +649,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>8</x:v>
@@ -664,7 +664,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -707,7 +707,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>13</x:v>
@@ -722,7 +722,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10242</x:v>
+        <x:v>10244</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1934</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15657</x:v>
+        <x:v>15659</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10349</x:v>
+        <x:v>10351</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1941</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15830</x:v>
+        <x:v>15832</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2247</x:v>
+        <x:v>2249</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4830</x:v>
+        <x:v>4832</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2344</x:v>
+        <x:v>2346</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5061</x:v>
+        <x:v>5063</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10591</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4749</x:v>
+        <x:v>4751</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23041</x:v>
+        <x:v>23043</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11357</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5205</x:v>
+        <x:v>5207</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24766</x:v>
+        <x:v>24768</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1986</x:v>
+        <x:v>1987</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>958</x:v>
@@ -748,10 +748,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3571</x:v>
+        <x:v>3575</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2453</x:v>
+        <x:v>2454</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1357</x:v>
@@ -806,10 +806,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4675</x:v>
+        <x:v>4679</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10244</x:v>
+        <x:v>10245</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1934</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15659</x:v>
+        <x:v>15660</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10351</x:v>
+        <x:v>10352</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1941</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15832</x:v>
+        <x:v>15833</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10591</x:v>
+        <x:v>10595</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4751</x:v>
+        <x:v>4752</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23043</x:v>
+        <x:v>23048</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11357</x:v>
+        <x:v>11361</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5207</x:v>
+        <x:v>5208</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24768</x:v>
+        <x:v>24773</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>265</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2247</x:v>
+        <x:v>2248</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1822</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>316</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3022</x:v>
+        <x:v>3023</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10595</x:v>
+        <x:v>10596</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4752</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23048</x:v>
+        <x:v>23049</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11361</x:v>
+        <x:v>11362</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5208</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24773</x:v>
+        <x:v>24774</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10245</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1934</x:v>
+        <x:v>1935</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15660</x:v>
+        <x:v>15661</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>10352</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1941</x:v>
+        <x:v>1942</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15833</x:v>
+        <x:v>15834</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1348</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>265</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2248</x:v>
+        <x:v>2252</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1823</x:v>
+        <x:v>1827</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>316</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3023</x:v>
+        <x:v>3027</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10596</x:v>
+        <x:v>10597</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4752</x:v>
+        <x:v>4753</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23049</x:v>
+        <x:v>23051</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -539,7 +539,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2</x:v>
@@ -548,7 +548,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1726</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,16 +559,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11362</x:v>
+        <x:v>11363</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5208</x:v>
+        <x:v>5209</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1283</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24774</x:v>
+        <x:v>24777</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10597</x:v>
+        <x:v>10598</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4753</x:v>
+        <x:v>4755</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23051</x:v>
+        <x:v>23054</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11363</x:v>
+        <x:v>11364</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5209</x:v>
+        <x:v>5211</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24777</x:v>
+        <x:v>24780</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10245</x:v>
+        <x:v>10244</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15661</x:v>
+        <x:v>15660</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10352</x:v>
+        <x:v>10351</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15834</x:v>
+        <x:v>15833</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10598</x:v>
+        <x:v>10600</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4755</x:v>
+        <x:v>4756</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6160</x:v>
+        <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23054</x:v>
+        <x:v>23058</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11364</x:v>
+        <x:v>11366</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5211</x:v>
+        <x:v>5212</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6520</x:v>
+        <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24780</x:v>
+        <x:v>24784</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -649,7 +649,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>8</x:v>
@@ -664,7 +664,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -707,7 +707,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>13</x:v>
@@ -722,7 +722,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10244</x:v>
+        <x:v>10243</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15660</x:v>
+        <x:v>15659</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10351</x:v>
+        <x:v>10350</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15833</x:v>
+        <x:v>15832</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1880</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2249</x:v>
+        <x:v>2251</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4832</x:v>
+        <x:v>4834</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2348</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5063</x:v>
+        <x:v>5065</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10600</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4756</x:v>
+        <x:v>4760</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23058</x:v>
+        <x:v>23062</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11366</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5212</x:v>
+        <x:v>5216</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24784</x:v>
+        <x:v>24788</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10243</x:v>
+        <x:v>10244</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15659</x:v>
+        <x:v>15660</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10350</x:v>
+        <x:v>10351</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15832</x:v>
+        <x:v>15833</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -997,7 +997,7 @@
         <x:v>1352</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>39</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2252</x:v>
+        <x:v>2253</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1055,7 +1055,7 @@
         <x:v>1827</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>46</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3027</x:v>
+        <x:v>3028</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,10 +1081,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1880</x:v>
+        <x:v>1881</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2251</x:v>
+        <x:v>2254</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4834</x:v>
+        <x:v>4838</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,10 +1139,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1984</x:v>
+        <x:v>1985</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2348</x:v>
+        <x:v>2351</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5065</x:v>
+        <x:v>5069</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10600</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4760</x:v>
+        <x:v>4761</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23062</x:v>
+        <x:v>23063</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11366</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5216</x:v>
+        <x:v>5217</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24788</x:v>
+        <x:v>24789</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10244</x:v>
+        <x:v>10245</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15660</x:v>
+        <x:v>15661</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10351</x:v>
+        <x:v>10352</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15833</x:v>
+        <x:v>15834</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10600</x:v>
+        <x:v>10602</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4761</x:v>
+        <x:v>4764</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23063</x:v>
+        <x:v>23068</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11366</x:v>
+        <x:v>11368</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5217</x:v>
+        <x:v>5220</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24789</x:v>
+        <x:v>24794</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10245</x:v>
+        <x:v>10246</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15661</x:v>
+        <x:v>15662</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10352</x:v>
+        <x:v>10353</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15834</x:v>
+        <x:v>15835</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -997,7 +997,7 @@
         <x:v>1352</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>39</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2253</x:v>
+        <x:v>2254</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1055,7 +1055,7 @@
         <x:v>1827</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>46</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3028</x:v>
+        <x:v>3029</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10602</x:v>
+        <x:v>10603</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4764</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23068</x:v>
+        <x:v>23069</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11368</x:v>
+        <x:v>11369</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5220</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24794</x:v>
+        <x:v>24795</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -762,7 +762,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>399</x:v>
@@ -780,7 +780,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2454</x:v>
+        <x:v>2456</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1357</x:v>
@@ -809,7 +809,7 @@
         <x:v>590</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4679</x:v>
+        <x:v>4681</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1352</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>267</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2254</x:v>
+        <x:v>2255</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1827</x:v>
+        <x:v>1828</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>318</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3029</x:v>
+        <x:v>3030</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,10 +1081,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1882</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2254</x:v>
+        <x:v>2258</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4838</x:v>
+        <x:v>4843</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,10 +1139,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1985</x:v>
+        <x:v>1986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2351</x:v>
+        <x:v>2355</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5069</x:v>
+        <x:v>5074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10603</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4764</x:v>
+        <x:v>4766</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23069</x:v>
+        <x:v>23071</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11369</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5220</x:v>
+        <x:v>5222</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24795</x:v>
+        <x:v>24797</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10603</x:v>
+        <x:v>10605</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4766</x:v>
+        <x:v>4767</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23071</x:v>
+        <x:v>23074</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11369</x:v>
+        <x:v>11371</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5222</x:v>
+        <x:v>5223</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24797</x:v>
+        <x:v>24800</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10605</x:v>
+        <x:v>10606</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4767</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23074</x:v>
+        <x:v>23075</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11371</x:v>
+        <x:v>11372</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5223</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24800</x:v>
+        <x:v>24801</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10246</x:v>
+        <x:v>10247</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15662</x:v>
+        <x:v>15663</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10353</x:v>
+        <x:v>10354</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15835</x:v>
+        <x:v>15836</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1000,7 +1000,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>49</x:v>
@@ -1009,10 +1009,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2255</x:v>
+        <x:v>2257</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1058,7 +1058,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>83</x:v>
@@ -1067,10 +1067,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3030</x:v>
+        <x:v>3032</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,25 +501,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10606</x:v>
+        <x:v>10609</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4767</x:v>
+        <x:v>4771</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>335</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1185</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6161</x:v>
+        <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23075</x:v>
+        <x:v>23082</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11372</x:v>
+        <x:v>11375</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5223</x:v>
+        <x:v>5227</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>378</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6521</x:v>
+        <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24801</x:v>
+        <x:v>24808</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10247</x:v>
+        <x:v>10246</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -835,7 +835,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2371</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
         <x:v>15663</x:v>
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10354</x:v>
+        <x:v>10353</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -893,7 +893,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2419</x:v>
+        <x:v>2420</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
         <x:v>15836</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,13 +501,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10609</x:v>
+        <x:v>10611</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4771</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1186</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6160</x:v>
+        <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23082</x:v>
+        <x:v>23086</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -539,10 +539,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>360</x:v>
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11375</x:v>
+        <x:v>11377</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5227</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6520</x:v>
+        <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24808</x:v>
+        <x:v>24812</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1882</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2258</x:v>
+        <x:v>2259</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4843</x:v>
+        <x:v>4844</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2355</x:v>
+        <x:v>2356</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5074</x:v>
+        <x:v>5075</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10246</x:v>
+        <x:v>10248</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2371</x:v>
+        <x:v>2370</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15663</x:v>
+        <x:v>15664</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10353</x:v>
+        <x:v>10355</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2420</x:v>
+        <x:v>2419</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15836</x:v>
+        <x:v>15837</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10611</x:v>
+        <x:v>10612</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4771</x:v>
+        <x:v>4772</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -519,7 +519,7 @@
         <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23086</x:v>
+        <x:v>23088</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11377</x:v>
+        <x:v>11378</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5227</x:v>
+        <x:v>5228</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -577,7 +577,7 @@
         <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24812</x:v>
+        <x:v>24814</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2371</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15664</x:v>
+        <x:v>15665</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -849,7 +849,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>7</x:v>
@@ -867,7 +867,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10355</x:v>
+        <x:v>10354</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -893,7 +893,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2419</x:v>
+        <x:v>2420</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
         <x:v>15837</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10612</x:v>
+        <x:v>10613</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4772</x:v>
+        <x:v>4773</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>336</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6161</x:v>
+        <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23088</x:v>
+        <x:v>23089</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11378</x:v>
+        <x:v>11379</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5228</x:v>
+        <x:v>5229</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>379</x:v>
@@ -574,10 +574,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6521</x:v>
+        <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24814</x:v>
+        <x:v>24815</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10248</x:v>
+        <x:v>10249</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2371</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15665</x:v>
+        <x:v>15666</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10354</x:v>
+        <x:v>10355</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2420</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15837</x:v>
+        <x:v>15838</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,16 +501,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10613</x:v>
+        <x:v>10615</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4773</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23089</x:v>
+        <x:v>23093</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,16 +559,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11379</x:v>
+        <x:v>11381</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5229</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>22</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24815</x:v>
+        <x:v>24819</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10249</x:v>
+        <x:v>10248</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -835,7 +835,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2371</x:v>
+        <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
         <x:v>15666</x:v>
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10355</x:v>
+        <x:v>10354</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -893,7 +893,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2420</x:v>
+        <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
         <x:v>15838</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10615</x:v>
+        <x:v>10616</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4773</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23093</x:v>
+        <x:v>23094</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11381</x:v>
+        <x:v>11382</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5229</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24819</x:v>
+        <x:v>24820</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10616</x:v>
+        <x:v>10618</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4773</x:v>
+        <x:v>4774</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23094</x:v>
+        <x:v>23097</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1726</x:v>
+        <x:v>1727</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11382</x:v>
+        <x:v>11384</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5229</x:v>
+        <x:v>5231</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24820</x:v>
+        <x:v>24824</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1882</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2259</x:v>
+        <x:v>2258</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4844</x:v>
+        <x:v>4843</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2356</x:v>
+        <x:v>2355</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5075</x:v>
+        <x:v>5074</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10618</x:v>
+        <x:v>10620</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4774</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23097</x:v>
+        <x:v>23099</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11384</x:v>
+        <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5231</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24824</x:v>
+        <x:v>24826</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -777,10 +777,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>1105</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -806,10 +806,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4681</x:v>
+        <x:v>4680</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -533,7 +533,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1727</x:v>
+        <x:v>1725</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11386</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5231</x:v>
+        <x:v>5229</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24826</x:v>
+        <x:v>24824</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10248</x:v>
+        <x:v>10249</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15666</x:v>
+        <x:v>15667</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10354</x:v>
+        <x:v>10355</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15838</x:v>
+        <x:v>15839</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1081,10 +1081,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1882</x:v>
+        <x:v>1883</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2258</x:v>
+        <x:v>2259</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4843</x:v>
+        <x:v>4845</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,10 +1139,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1986</x:v>
+        <x:v>1987</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2355</x:v>
+        <x:v>2356</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5074</x:v>
+        <x:v>5076</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,16 +501,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10620</x:v>
+        <x:v>10622</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4774</x:v>
+        <x:v>4776</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
@@ -519,7 +519,7 @@
         <x:v>6160</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23099</x:v>
+        <x:v>23104</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,16 +559,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11386</x:v>
+        <x:v>11388</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5229</x:v>
+        <x:v>5231</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1287</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>22</x:v>
@@ -577,7 +577,7 @@
         <x:v>6520</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24824</x:v>
+        <x:v>24829</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -742,7 +742,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -751,7 +751,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3575</x:v>
+        <x:v>3576</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -800,7 +800,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>7</x:v>
@@ -809,7 +809,7 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4680</x:v>
+        <x:v>4681</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10249</x:v>
+        <x:v>10250</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15667</x:v>
+        <x:v>15668</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10355</x:v>
+        <x:v>10356</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15839</x:v>
+        <x:v>15840</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1353</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>267</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2257</x:v>
+        <x:v>2258</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1828</x:v>
+        <x:v>1829</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>318</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>753</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3032</x:v>
+        <x:v>3033</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,25 +501,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10622</x:v>
+        <x:v>10623</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4776</x:v>
+        <x:v>4781</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6160</x:v>
+        <x:v>6162</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23104</x:v>
+        <x:v>23110</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11388</x:v>
+        <x:v>11389</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5231</x:v>
+        <x:v>5236</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1288</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6520</x:v>
+        <x:v>6522</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24829</x:v>
+        <x:v>24835</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10250</x:v>
+        <x:v>10253</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1935</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15668</x:v>
+        <x:v>15671</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10356</x:v>
+        <x:v>10359</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1942</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15840</x:v>
+        <x:v>15843</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1883</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2259</x:v>
+        <x:v>2260</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4845</x:v>
+        <x:v>4846</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1987</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2356</x:v>
+        <x:v>2357</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>5077</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10623</x:v>
+        <x:v>10624</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4781</x:v>
+        <x:v>4782</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6162</x:v>
+        <x:v>6161</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23110</x:v>
+        <x:v>23111</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11389</x:v>
+        <x:v>11390</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5236</x:v>
+        <x:v>5237</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -574,10 +574,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6522</x:v>
+        <x:v>6521</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24835</x:v>
+        <x:v>24836</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10253</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1935</x:v>
+        <x:v>1936</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15671</x:v>
+        <x:v>15672</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>10359</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1942</x:v>
+        <x:v>1943</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15843</x:v>
+        <x:v>15844</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>50</x:v>
@@ -925,7 +925,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -965,7 +965,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>50</x:v>
@@ -983,7 +983,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6161</x:v>
+        <x:v>6162</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23111</x:v>
+        <x:v>23112</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -574,10 +574,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6521</x:v>
+        <x:v>6522</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24836</x:v>
+        <x:v>24837</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10253</x:v>
+        <x:v>10254</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1936</x:v>
+        <x:v>1937</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15672</x:v>
+        <x:v>15674</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10359</x:v>
+        <x:v>10360</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1943</x:v>
+        <x:v>1944</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15844</x:v>
+        <x:v>15846</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10624</x:v>
+        <x:v>10626</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4782</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6162</x:v>
+        <x:v>6163</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23112</x:v>
+        <x:v>23115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11390</x:v>
+        <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5237</x:v>
@@ -574,10 +574,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6522</x:v>
+        <x:v>6523</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24837</x:v>
+        <x:v>24840</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10254</x:v>
+        <x:v>10252</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1937</x:v>
+        <x:v>1938</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2372</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15674</x:v>
+        <x:v>15673</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10360</x:v>
+        <x:v>10358</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1944</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2421</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15846</x:v>
+        <x:v>15845</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1354</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>267</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2258</x:v>
+        <x:v>2259</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1829</x:v>
+        <x:v>1830</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>318</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>753</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3033</x:v>
+        <x:v>3034</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2372</x:v>
+        <x:v>2373</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15673</x:v>
+        <x:v>15674</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2421</x:v>
+        <x:v>2422</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15845</x:v>
+        <x:v>15846</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1084,7 +1084,7 @@
         <x:v>1883</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2260</x:v>
+        <x:v>2259</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4846</x:v>
+        <x:v>4845</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1142,7 +1142,7 @@
         <x:v>1987</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2357</x:v>
+        <x:v>2356</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5077</x:v>
+        <x:v>5076</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10252</x:v>
+        <x:v>10254</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1938</x:v>
@@ -838,7 +838,7 @@
         <x:v>2373</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15674</x:v>
+        <x:v>15676</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10358</x:v>
+        <x:v>10360</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1945</x:v>
@@ -896,7 +896,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15846</x:v>
+        <x:v>15848</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10626</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4782</x:v>
+        <x:v>4783</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -516,10 +516,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6163</x:v>
+        <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23115</x:v>
+        <x:v>23117</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -539,10 +539,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>360</x:v>
@@ -562,22 +562,22 @@
         <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5237</x:v>
+        <x:v>5238</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6523</x:v>
+        <x:v>6524</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24840</x:v>
+        <x:v>24842</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10254</x:v>
+        <x:v>10255</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1938</x:v>
@@ -838,7 +838,7 @@
         <x:v>2373</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15676</x:v>
+        <x:v>15677</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10360</x:v>
+        <x:v>10361</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1945</x:v>
@@ -896,7 +896,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15848</x:v>
+        <x:v>15849</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10626</x:v>
+        <x:v>10624</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4783</x:v>
@@ -519,7 +519,7 @@
         <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23117</x:v>
+        <x:v>23115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11392</x:v>
+        <x:v>11390</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5238</x:v>
@@ -577,7 +577,7 @@
         <x:v>6524</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24842</x:v>
+        <x:v>24840</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -533,22 +533,22 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1726</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,22 +562,22 @@
         <x:v>11390</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5238</x:v>
+        <x:v>5239</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6524</x:v>
+        <x:v>6523</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24840</x:v>
+        <x:v>24841</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -736,7 +736,7 @@
         <x:v>1987</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>41</x:v>
@@ -751,7 +751,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3576</x:v>
+        <x:v>3577</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>2456</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1357</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>53</x:v>
@@ -809,7 +809,7 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4681</x:v>
+        <x:v>4682</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10255</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1938</x:v>
+        <x:v>1937</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>584</x:v>
@@ -838,7 +838,7 @@
         <x:v>2373</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15677</x:v>
+        <x:v>15676</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>10361</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1945</x:v>
+        <x:v>1944</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>591</x:v>
@@ -896,7 +896,7 @@
         <x:v>2422</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15849</x:v>
+        <x:v>15848</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10624</x:v>
+        <x:v>10621</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4783</x:v>
+        <x:v>4782</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23115</x:v>
+        <x:v>23111</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -545,10 +545,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1726</x:v>
+        <x:v>1732</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11390</x:v>
+        <x:v>11387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5239</x:v>
+        <x:v>5241</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6523</x:v>
+        <x:v>6526</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24841</x:v>
+        <x:v>24843</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,10 +733,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1987</x:v>
+        <x:v>1983</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>41</x:v>
@@ -751,7 +751,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3577</x:v>
+        <x:v>3570</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,10 +791,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2456</x:v>
+        <x:v>2452</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1358</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>53</x:v>
@@ -809,7 +809,7 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4682</x:v>
+        <x:v>4675</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,13 +820,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10255</x:v>
+        <x:v>10266</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1937</x:v>
+        <x:v>1936</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>500</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2373</x:v>
+        <x:v>2378</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15676</x:v>
+        <x:v>15692</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,13 +878,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10361</x:v>
+        <x:v>10372</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1944</x:v>
+        <x:v>1943</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>503</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2422</x:v>
+        <x:v>2427</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15848</x:v>
+        <x:v>15864</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -997,7 +997,7 @@
         <x:v>1355</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>40</x:v>
@@ -1012,7 +1012,7 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2259</x:v>
+        <x:v>2258</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1055,7 +1055,7 @@
         <x:v>1830</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>47</x:v>
@@ -1070,7 +1070,7 @@
         <x:v>753</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3034</x:v>
+        <x:v>3033</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10621</x:v>
+        <x:v>10623</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4782</x:v>
+        <x:v>4783</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23111</x:v>
+        <x:v>23114</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>459</x:v>
@@ -548,7 +548,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1732</x:v>
+        <x:v>1733</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11387</x:v>
+        <x:v>11390</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5241</x:v>
+        <x:v>5242</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6526</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24843</x:v>
+        <x:v>24847</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1983</x:v>
+        <x:v>1984</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>956</x:v>
@@ -751,7 +751,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3570</x:v>
+        <x:v>3571</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2452</x:v>
+        <x:v>2453</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1355</x:v>
@@ -809,7 +809,7 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4675</x:v>
+        <x:v>4676</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10266</x:v>
+        <x:v>10267</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1936</x:v>
+        <x:v>1937</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>585</x:v>
@@ -838,7 +838,7 @@
         <x:v>2378</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15692</x:v>
+        <x:v>15694</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10372</x:v>
+        <x:v>10373</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1943</x:v>
+        <x:v>1944</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>592</x:v>
@@ -896,7 +896,7 @@
         <x:v>2427</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15864</x:v>
+        <x:v>15866</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10623</x:v>
+        <x:v>10624</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4783</x:v>
@@ -519,7 +519,7 @@
         <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23114</x:v>
+        <x:v>23115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11390</x:v>
+        <x:v>11391</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5242</x:v>
@@ -577,7 +577,7 @@
         <x:v>6526</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24847</x:v>
+        <x:v>24848</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10624</x:v>
+        <x:v>10625</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4783</x:v>
+        <x:v>4784</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6164</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23115</x:v>
+        <x:v>23117</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11391</x:v>
+        <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5242</x:v>
+        <x:v>5243</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6526</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24848</x:v>
+        <x:v>24850</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -533,7 +533,7 @@
         <x:v>767</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1733</x:v>
+        <x:v>1734</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5243</x:v>
+        <x:v>5244</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6526</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24850</x:v>
+        <x:v>24851</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10267</x:v>
+        <x:v>10271</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1937</x:v>
@@ -838,7 +838,7 @@
         <x:v>2378</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15694</x:v>
+        <x:v>15698</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10373</x:v>
+        <x:v>10377</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1944</x:v>
@@ -896,7 +896,7 @@
         <x:v>2427</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15866</x:v>
+        <x:v>15870</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -545,10 +545,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1734</x:v>
+        <x:v>1733</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -574,10 +574,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6526</x:v>
+        <x:v>6525</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24851</x:v>
+        <x:v>24850</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -733,7 +733,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1984</x:v>
+        <x:v>1983</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>956</x:v>
@@ -748,7 +748,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>3571</x:v>
@@ -791,7 +791,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2453</x:v>
+        <x:v>2452</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1355</x:v>
@@ -806,7 +806,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
         <x:v>4676</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,25 +501,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10625</x:v>
+        <x:v>10624</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4784</x:v>
+        <x:v>4786</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6164</x:v>
+        <x:v>6171</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23117</x:v>
+        <x:v>23126</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -533,7 +533,7 @@
         <x:v>767</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>43</x:v>
@@ -548,7 +548,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1733</x:v>
+        <x:v>1734</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -559,25 +559,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11392</x:v>
+        <x:v>11391</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5244</x:v>
+        <x:v>5247</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6525</x:v>
+        <x:v>6532</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24850</x:v>
+        <x:v>24860</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10271</x:v>
+        <x:v>10273</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1937</x:v>
@@ -838,7 +838,7 @@
         <x:v>2378</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15698</x:v>
+        <x:v>15700</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10377</x:v>
+        <x:v>10379</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1944</x:v>
@@ -896,7 +896,7 @@
         <x:v>2427</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15870</x:v>
+        <x:v>15872</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>50</x:v>
@@ -925,7 +925,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -965,7 +965,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>50</x:v>
@@ -983,7 +983,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1081,16 +1081,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1883</x:v>
+        <x:v>1882</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2259</x:v>
+        <x:v>2258</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>5</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4845</x:v>
+        <x:v>4844</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1139,16 +1139,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1987</x:v>
+        <x:v>1986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2356</x:v>
+        <x:v>2355</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>5</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>5075</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10624</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4786</x:v>
+        <x:v>4788</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6171</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23126</x:v>
+        <x:v>23128</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11391</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5247</x:v>
+        <x:v>5249</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6532</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24860</x:v>
+        <x:v>24862</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -823,7 +823,7 @@
         <x:v>10273</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1937</x:v>
+        <x:v>1938</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>585</x:v>
@@ -838,7 +838,7 @@
         <x:v>2378</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15700</x:v>
+        <x:v>15701</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -881,7 +881,7 @@
         <x:v>10379</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1944</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>592</x:v>
@@ -896,7 +896,7 @@
         <x:v>2427</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15872</x:v>
+        <x:v>15873</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -1090,7 +1090,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>5</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4844</x:v>
+        <x:v>4845</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1148,7 +1148,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>5</x:v>
@@ -1157,7 +1157,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5075</x:v>
+        <x:v>5076</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,10 +501,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10624</x:v>
+        <x:v>10625</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4788</x:v>
+        <x:v>4789</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6171</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23128</x:v>
+        <x:v>23130</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,10 +559,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11391</x:v>
+        <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5249</x:v>
+        <x:v>5250</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6532</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24862</x:v>
+        <x:v>24864</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -820,7 +820,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10273</x:v>
+        <x:v>10274</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1938</x:v>
@@ -835,10 +835,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2379</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>15701</x:v>
+        <x:v>15703</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -878,7 +878,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10379</x:v>
+        <x:v>10380</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1945</x:v>
@@ -893,10 +893,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2427</x:v>
+        <x:v>2428</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>15873</x:v>
+        <x:v>15875</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -504,7 +504,7 @@
         <x:v>10625</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4789</x:v>
+        <x:v>4788</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>337</x:v>
@@ -519,7 +519,7 @@
         <x:v>6171</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23130</x:v>
+        <x:v>23129</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -562,7 +562,7 @@
         <x:v>11392</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5250</x:v>
+        <x:v>5249</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>380</x:v>
@@ -577,7 +577,7 @@
         <x:v>6532</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24864</x:v>
+        <x:v>24863</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10625</x:v>
+        <x:v>10627</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4788</x:v>
@@ -510,16 +510,16 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6171</x:v>
+        <x:v>6172</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23129</x:v>
+        <x:v>23133</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11392</x:v>
+        <x:v>11394</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5249</x:v>
@@ -568,16 +568,16 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1287</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6532</x:v>
+        <x:v>6533</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24863</x:v>
+        <x:v>24867</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10274</x:v>
+        <x:v>10275</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1938</x:v>
+        <x:v>1937</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>585</x:v>
@@ -878,10 +878,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10380</x:v>
+        <x:v>10381</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1945</x:v>
+        <x:v>1944</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>592</x:v>
@@ -1009,10 +1009,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2258</x:v>
+        <x:v>2259</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1067,10 +1067,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>3033</x:v>
+        <x:v>3034</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>10627</x:v>
+        <x:v>10626</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4788</x:v>
@@ -519,7 +519,7 @@
         <x:v>6172</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23133</x:v>
+        <x:v>23132</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11394</x:v>
+        <x:v>11393</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5249</x:v>
@@ -577,7 +577,7 @@
         <x:v>6533</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24867</x:v>
+        <x:v>24866</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -49,31 +49,364 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
+    <x:t>10628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23134</x:t>
+  </x:si>
+  <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
+    <x:t>767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1734</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
+    <x:t>11395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24868</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bad Checks</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>595</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>1983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4677</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>10276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15878</x:t>
+  </x:si>
+  <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>1355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3034</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5077</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -82,7 +415,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -132,13 +465,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -147,7 +480,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -155,7 +488,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -450,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -500,26 +833,26 @@
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>10626</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>4788</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1188</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>6172</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="n">
-        <x:v>23132</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,28 +860,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>767</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>1734</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,608 +889,608 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>11393</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>5249</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>1288</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>6533</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>24866</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>1</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="n">
+      <x:c r="C7" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>185</x:v>
+      <x:c r="I7" s="1" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1983</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>956</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="n">
-        <x:v>3571</x:v>
+      <x:c r="C10" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>2452</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>1355</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>590</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="n">
-        <x:v>4676</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>10275</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>1937</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>585</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>2379</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="n">
-        <x:v>15703</x:v>
+      <x:c r="C13" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>10381</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>1944</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>592</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>503</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>2428</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="n">
-        <x:v>15875</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C16" s="1" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="n">
-        <x:v>185</x:v>
+      <x:c r="C16" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I16" s="1" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="n">
-        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C19" s="1" t="n">
-        <x:v>1355</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="n">
-        <x:v>2259</x:v>
+      <x:c r="C19" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="n">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="n">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="n">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="n">
-        <x:v>775</x:v>
+      <x:c r="C20" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C21" s="1" t="n">
-        <x:v>1830</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="n">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="n">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="n">
-        <x:v>754</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="n">
-        <x:v>3034</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C22" s="1" t="n">
-        <x:v>1882</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="n">
-        <x:v>2258</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="n">
-        <x:v>320</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H22" s="1" t="n">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="n">
-        <x:v>4845</x:v>
+      <x:c r="C22" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H22" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="n">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H23" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C24" s="1" t="n">
-        <x:v>1986</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="n">
-        <x:v>2355</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="n">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="n">
-        <x:v>328</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="n">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I24" s="1" t="s">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -238,7 +238,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10276</x:t>
+    <x:t>10278</x:t>
   </x:si>
   <x:si>
     <x:t>1939</x:t>
@@ -256,7 +256,7 @@
     <x:t>2379</x:t>
   </x:si>
   <x:si>
-    <x:t>15706</x:t>
+    <x:t>15708</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -271,7 +271,7 @@
     <x:t>172</x:t>
   </x:si>
   <x:si>
-    <x:t>10382</x:t>
+    <x:t>10384</x:t>
   </x:si>
   <x:si>
     <x:t>1946</x:t>
@@ -286,7 +286,7 @@
     <x:t>2428</x:t>
   </x:si>
   <x:si>
-    <x:t>15878</x:t>
+    <x:t>15880</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4789</x:t>
+    <x:t>10629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4788</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5250</x:t>
+    <x:t>11396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5249</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -238,10 +238,10 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1939</x:t>
+    <x:t>10279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1940</x:t>
   </x:si>
   <x:si>
     <x:t>585</x:t>
@@ -256,7 +256,7 @@
     <x:t>2379</x:t>
   </x:si>
   <x:si>
-    <x:t>15708</x:t>
+    <x:t>15710</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -271,10 +271,10 @@
     <x:t>172</x:t>
   </x:si>
   <x:si>
-    <x:t>10384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1946</x:t>
+    <x:t>10385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1947</x:t>
   </x:si>
   <x:si>
     <x:t>592</x:t>
@@ -286,7 +286,7 @@
     <x:t>2428</x:t>
   </x:si>
   <x:si>
-    <x:t>15880</x:t>
+    <x:t>15882</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -196,7 +196,7 @@
     <x:t>3571</x:t>
   </x:si>
   <x:si>
-    <x:t>469</x:t>
+    <x:t>468</x:t>
   </x:si>
   <x:si>
     <x:t>400</x:t>
@@ -211,10 +211,10 @@
     <x:t>176</x:t>
   </x:si>
   <x:si>
-    <x:t>1106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2452</x:t>
+    <x:t>1105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2451</x:t>
   </x:si>
   <x:si>
     <x:t>1356</x:t>
@@ -232,7 +232,7 @@
     <x:t>590</x:t>
   </x:si>
   <x:si>
-    <x:t>4677</x:t>
+    <x:t>4676</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -64,10 +64,10 @@
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>6171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23134</x:t>
+    <x:t>6172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23135</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24868</x:t>
+    <x:t>6533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24869</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -238,7 +238,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10279</x:t>
+    <x:t>10278</x:t>
   </x:si>
   <x:si>
     <x:t>1940</x:t>
@@ -256,7 +256,7 @@
     <x:t>2379</x:t>
   </x:si>
   <x:si>
-    <x:t>15710</x:t>
+    <x:t>15709</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -271,7 +271,7 @@
     <x:t>172</x:t>
   </x:si>
   <x:si>
-    <x:t>10385</x:t>
+    <x:t>10384</x:t>
   </x:si>
   <x:si>
     <x:t>1947</x:t>
@@ -286,7 +286,7 @@
     <x:t>2428</x:t>
   </x:si>
   <x:si>
-    <x:t>15882</x:t>
+    <x:t>15881</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -52,7 +52,7 @@
     <x:t>10629</x:t>
   </x:si>
   <x:si>
-    <x:t>4788</x:t>
+    <x:t>4787</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23135</x:t>
+    <x:t>23134</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -76,7 +76,7 @@
     <x:t>767</x:t>
   </x:si>
   <x:si>
-    <x:t>461</x:t>
+    <x:t>463</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -91,7 +91,7 @@
     <x:t>361</x:t>
   </x:si>
   <x:si>
-    <x:t>1734</x:t>
+    <x:t>1736</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -100,7 +100,7 @@
     <x:t>11396</x:t>
   </x:si>
   <x:si>
-    <x:t>5249</x:t>
+    <x:t>5250</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24869</x:t>
+    <x:t>24870</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -292,99 +292,105 @@
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4845</x:t>
+  </x:si>
+  <x:si>
     <x:t>97</x:t>
   </x:si>
   <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4846</x:t>
-  </x:si>
-  <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
@@ -394,10 +400,7 @@
     <x:t>1987</x:t>
   </x:si>
   <x:si>
-    <x:t>2355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
+    <x:t>2354</x:t>
   </x:si>
   <x:si>
     <x:t>328</x:t>
@@ -406,7 +409,7 @@
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>5077</x:t>
+    <x:t>5076</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1258,7 +1261,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1298,7 +1301,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>93</x:v>
@@ -1307,7 +1310,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>36</x:v>
@@ -1316,24 +1319,24 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
         <x:v>83</x:v>
@@ -1342,102 +1345,102 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>18</x:v>
@@ -1446,7 +1449,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>57</x:v>
@@ -1458,39 +1461,39 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10629</x:t>
+    <x:t>10630</x:t>
   </x:si>
   <x:si>
     <x:t>4787</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23134</x:t>
+    <x:t>23135</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11396</x:t>
+    <x:t>11397</x:t>
   </x:si>
   <x:si>
     <x:t>5250</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24870</x:t>
+    <x:t>24871</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -373,7 +373,7 @@
     <x:t>1883</x:t>
   </x:si>
   <x:si>
-    <x:t>2257</x:t>
+    <x:t>2258</x:t>
   </x:si>
   <x:si>
     <x:t>93</x:t>
@@ -385,7 +385,7 @@
     <x:t>287</x:t>
   </x:si>
   <x:si>
-    <x:t>4845</x:t>
+    <x:t>4846</x:t>
   </x:si>
   <x:si>
     <x:t>97</x:t>
@@ -400,7 +400,7 @@
     <x:t>1987</x:t>
   </x:si>
   <x:si>
-    <x:t>2354</x:t>
+    <x:t>2355</x:t>
   </x:si>
   <x:si>
     <x:t>328</x:t>
@@ -409,7 +409,7 @@
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>5076</x:t>
+    <x:t>5077</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,16 +49,16 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4787</x:t>
+    <x:t>10632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4788</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
   </x:si>
   <x:si>
-    <x:t>1188</x:t>
+    <x:t>1193</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23135</x:t>
+    <x:t>23143</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,16 +97,16 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11397</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5250</x:t>
+    <x:t>11399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5251</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>1288</x:t>
+    <x:t>1293</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24871</x:t>
+    <x:t>24879</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -253,10 +253,10 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15709</x:t>
+    <x:t>2380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15710</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -283,10 +283,10 @@
     <x:t>503</x:t>
   </x:si>
   <x:si>
-    <x:t>2428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15881</x:t>
+    <x:t>2429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15882</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10632</x:t>
+    <x:t>10631</x:t>
   </x:si>
   <x:si>
     <x:t>4788</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23143</x:t>
+    <x:t>23142</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -76,7 +76,7 @@
     <x:t>767</x:t>
   </x:si>
   <x:si>
-    <x:t>463</x:t>
+    <x:t>462</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -91,16 +91,16 @@
     <x:t>361</x:t>
   </x:si>
   <x:si>
-    <x:t>1736</x:t>
+    <x:t>1735</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5251</x:t>
+    <x:t>11398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5250</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24879</x:t>
+    <x:t>24877</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -238,7 +238,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10278</x:t>
+    <x:t>10277</x:t>
   </x:si>
   <x:si>
     <x:t>1940</x:t>
@@ -253,7 +253,7 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>2380</x:t>
+    <x:t>2381</x:t>
   </x:si>
   <x:si>
     <x:t>15710</x:t>
@@ -271,7 +271,7 @@
     <x:t>172</x:t>
   </x:si>
   <x:si>
-    <x:t>10384</x:t>
+    <x:t>10383</x:t>
   </x:si>
   <x:si>
     <x:t>1947</x:t>
@@ -283,7 +283,7 @@
     <x:t>503</x:t>
   </x:si>
   <x:si>
-    <x:t>2429</x:t>
+    <x:t>2430</x:t>
   </x:si>
   <x:si>
     <x:t>15882</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,16 +49,16 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4788</x:t>
+    <x:t>10630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4790</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
   </x:si>
   <x:si>
-    <x:t>1193</x:t>
+    <x:t>1194</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23142</x:t>
+    <x:t>23144</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,16 +97,16 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5250</x:t>
+    <x:t>11397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5252</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>1293</x:t>
+    <x:t>1294</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24877</x:t>
+    <x:t>24879</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -253,10 +253,10 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>2381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15710</x:t>
+    <x:t>2380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15709</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -283,10 +283,10 @@
     <x:t>503</x:t>
   </x:si>
   <x:si>
-    <x:t>2430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15882</x:t>
+    <x:t>2429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15881</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -52,7 +52,7 @@
     <x:t>10630</x:t>
   </x:si>
   <x:si>
-    <x:t>4790</x:t>
+    <x:t>4792</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23144</x:t>
+    <x:t>23146</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,7 +100,7 @@
     <x:t>11397</x:t>
   </x:si>
   <x:si>
-    <x:t>5252</x:t>
+    <x:t>5254</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24879</x:t>
+    <x:t>24881</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -52,7 +52,7 @@
     <x:t>10630</x:t>
   </x:si>
   <x:si>
-    <x:t>4792</x:t>
+    <x:t>4793</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23146</x:t>
+    <x:t>23147</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,7 +100,7 @@
     <x:t>11397</x:t>
   </x:si>
   <x:si>
-    <x:t>5254</x:t>
+    <x:t>5255</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24881</x:t>
+    <x:t>24882</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10630</x:t>
+    <x:t>10631</x:t>
   </x:si>
   <x:si>
     <x:t>4793</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23147</x:t>
+    <x:t>23148</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11397</x:t>
+    <x:t>11398</x:t>
   </x:si>
   <x:si>
     <x:t>5255</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24882</x:t>
+    <x:t>24883</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -52,7 +52,7 @@
     <x:t>10631</x:t>
   </x:si>
   <x:si>
-    <x:t>4793</x:t>
+    <x:t>4795</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23148</x:t>
+    <x:t>23150</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,7 +100,7 @@
     <x:t>11398</x:t>
   </x:si>
   <x:si>
-    <x:t>5255</x:t>
+    <x:t>5257</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24883</x:t>
+    <x:t>24885</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -184,7 +184,7 @@
     <x:t>956</x:t>
   </x:si>
   <x:si>
-    <x:t>171</x:t>
+    <x:t>172</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -193,7 +193,7 @@
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>3571</x:t>
+    <x:t>3572</x:t>
   </x:si>
   <x:si>
     <x:t>468</x:t>
@@ -223,7 +223,7 @@
     <x:t>53</x:t>
   </x:si>
   <x:si>
-    <x:t>219</x:t>
+    <x:t>220</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
@@ -232,7 +232,7 @@
     <x:t>590</x:t>
   </x:si>
   <x:si>
-    <x:t>4676</x:t>
+    <x:t>4677</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -266,9 +266,6 @@
   </x:si>
   <x:si>
     <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>172</x:t>
   </x:si>
   <x:si>
     <x:t>10383</x:t>
@@ -1203,7 +1200,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1214,59 +1211,59 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="s">
-        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>18</x:v>
@@ -1295,48 +1292,48 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
         <x:v>83</x:v>
@@ -1345,102 +1342,102 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>18</x:v>
@@ -1449,7 +1446,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>57</x:v>
@@ -1461,39 +1458,39 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="s">
-        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I24" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -52,7 +52,7 @@
     <x:t>10631</x:t>
   </x:si>
   <x:si>
-    <x:t>4795</x:t>
+    <x:t>4796</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -67,7 +67,7 @@
     <x:t>6172</x:t>
   </x:si>
   <x:si>
-    <x:t>23150</x:t>
+    <x:t>23151</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -76,7 +76,7 @@
     <x:t>767</x:t>
   </x:si>
   <x:si>
-    <x:t>462</x:t>
+    <x:t>461</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -91,7 +91,7 @@
     <x:t>361</x:t>
   </x:si>
   <x:si>
-    <x:t>1735</x:t>
+    <x:t>1734</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2023.xlsx
@@ -73,10 +73,10 @@
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>461</x:t>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>462</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -91,16 +91,16 @@
     <x:t>361</x:t>
   </x:si>
   <x:si>
-    <x:t>1734</x:t>
+    <x:t>1736</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5257</x:t>
+    <x:t>11399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5258</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -115,7 +115,7 @@
     <x:t>6533</x:t>
   </x:si>
   <x:si>
-    <x:t>24885</x:t>
+    <x:t>24887</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
